--- a/Ear Surgery Instruments/Tip Force Testing.xlsx
+++ b/Ear Surgery Instruments/Tip Force Testing.xlsx
@@ -1189,6 +1189,39 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tip Displacement</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> vs. </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Blocking Force</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5070,16 +5103,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>622300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>88900</xdr:rowOff>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>823569</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>48869</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>88122</xdr:rowOff>
+      <xdr:rowOff>164322</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -5096,7 +5129,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8877300" y="698500"/>
+          <a:off x="6413500" y="1727200"/>
           <a:ext cx="9281769" cy="3047222"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5140,12 +5173,12 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>132</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>3359150</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>146</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5499,9 +5532,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I521"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I138" sqref="I138"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A125" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
